--- a/Rate Cal.xlsx
+++ b/Rate Cal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>item1</t>
   </si>
@@ -68,16 +68,19 @@
     <t>rem</t>
   </si>
   <si>
-    <t>List</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>List Item</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
   </si>
 </sst>
 </file>
@@ -401,31 +404,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G15"/>
+  <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -433,16 +442,23 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>193</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <f>SUM(D4*E4)</f>
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -450,17 +466,24 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="0">SUM(D5*E5)</f>
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <f>SUM(D4:D62)</f>
-        <v>603</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -468,17 +491,24 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
-        <f>SUM(G5/G4)</f>
-        <v>43.071428571428569</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>SUM(I5/I4)</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -486,10 +516,17 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -497,10 +534,17 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -508,10 +552,17 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -519,10 +570,17 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -530,10 +588,17 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -541,10 +606,17 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -552,10 +624,17 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -563,10 +642,17 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -574,7 +660,14 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
